--- a/biology/Médecine/Tractus_solitaire/Tractus_solitaire.xlsx
+++ b/biology/Médecine/Tractus_solitaire/Tractus_solitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tractus solitaire (ou faisceau solitaire) est un tractus nerveux compact qui s'étend longitudinalement à travers la région postéro-latérale du bulbe rachidien.
 Il est entouré par le noyau solitaire et descend jusqu'aux segments cervicaux supérieurs de la moelle épinière.
@@ -513,14 +525,86 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tractus solitaire est composé de fibres sensorielles primaires et de fibres descendantes des nerfs vague, glosso-pharyngien et facial.
-Fibres afférentes
-Le tractus solitaire transmet des informations afférentes provenant des mécanorécepteurs et des chimiorécepteurs des parois des voies cardiovasculaire, respiratoire et intestinale. Les fibres afférentes des nerfs crâniens facial (VII), glosso-pharyngien (IX) et vague (X) véhiculent la sensibilité gustative dans sa partie rostrale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tractus_solitaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tractus_solitaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fibres afférentes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tractus solitaire transmet des informations afférentes provenant des mécanorécepteurs et des chimiorécepteurs des parois des voies cardiovasculaire, respiratoire et intestinale. Les fibres afférentes des nerfs crâniens facial (VII), glosso-pharyngien (IX) et vague (X) véhiculent la sensibilité gustative dans sa partie rostrale.
 La sensibilité  viscérale est transmise dans sa partie caudale.
-Fibres efférentes
-Les fibres efférentes sont distribuées au noyau du tractus solitaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tractus_solitaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tractus_solitaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fibres efférentes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fibres efférentes sont distribuées au noyau du tractus solitaire.
 </t>
         </is>
       </c>
